--- a/Dataset/16-laporan_iklim_harian.xlsx
+++ b/Dataset/16-laporan_iklim_harian.xlsx
@@ -15,36 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>ID WMO</t>
   </si>
   <si>
-    <t>:  96933</t>
+    <t>:  96745</t>
   </si>
   <si>
     <t>NAMA STASIUN</t>
   </si>
   <si>
-    <t>:  Stasiun Meteorologi Perak I</t>
+    <t>:  Stasiun Meteorologi Kemayoran</t>
   </si>
   <si>
     <t>LINTANG</t>
   </si>
   <si>
-    <t>:  -7.22360</t>
+    <t>:  -6.15559</t>
   </si>
   <si>
     <t>BUJUR</t>
   </si>
   <si>
-    <t>:  112.72390</t>
+    <t>:  106.84000</t>
   </si>
   <si>
     <t>ELEVASI</t>
   </si>
   <si>
-    <t>:  3 Meter</t>
+    <t>:  4 Meter</t>
   </si>
   <si>
     <t>TANGGAL</t>
@@ -62,7 +62,118 @@
     <t>RH_AVG</t>
   </si>
   <si>
-    <t>Data tidak ditemukan.</t>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>FF_X</t>
+  </si>
+  <si>
+    <t>DDD_X</t>
+  </si>
+  <si>
+    <t>FF_AVG</t>
+  </si>
+  <si>
+    <t>DDD_CAR</t>
+  </si>
+  <si>
+    <t>01-04-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>02-04-2024</t>
+  </si>
+  <si>
+    <t>03-04-2024</t>
+  </si>
+  <si>
+    <t>04-04-2024</t>
+  </si>
+  <si>
+    <t>05-04-2024</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>06-04-2024</t>
+  </si>
+  <si>
+    <t>07-04-2024</t>
+  </si>
+  <si>
+    <t>08-04-2024</t>
+  </si>
+  <si>
+    <t>09-04-2024</t>
+  </si>
+  <si>
+    <t>10-04-2024</t>
+  </si>
+  <si>
+    <t>11-04-2024</t>
+  </si>
+  <si>
+    <t>12-04-2024</t>
+  </si>
+  <si>
+    <t>13-04-2024</t>
+  </si>
+  <si>
+    <t>14-04-2024</t>
+  </si>
+  <si>
+    <t>15-04-2024</t>
+  </si>
+  <si>
+    <t>16-04-2024</t>
+  </si>
+  <si>
+    <t>17-04-2024</t>
+  </si>
+  <si>
+    <t>18-04-2024</t>
+  </si>
+  <si>
+    <t>19-04-2024</t>
+  </si>
+  <si>
+    <t>20-04-2024</t>
+  </si>
+  <si>
+    <t>21-04-2024</t>
+  </si>
+  <si>
+    <t>22-04-2024</t>
+  </si>
+  <si>
+    <t>23-04-2024</t>
+  </si>
+  <si>
+    <t>24-04-2024</t>
+  </si>
+  <si>
+    <t>25-04-2024</t>
+  </si>
+  <si>
+    <t>26-04-2024</t>
+  </si>
+  <si>
+    <t>27-04-2024</t>
+  </si>
+  <si>
+    <t>28-04-2024</t>
+  </si>
+  <si>
+    <t>29-04-2024</t>
+  </si>
+  <si>
+    <t>30-04-2024</t>
   </si>
   <si>
     <t>KETERANGAN:</t>
@@ -84,6 +195,24 @@
   </si>
   <si>
     <t>RH_avg: Kelembapan rata-rata(%)</t>
+  </si>
+  <si>
+    <t>RR: Curah hujan(mm)</t>
+  </si>
+  <si>
+    <t>ss: Lamanya penyinaran matahari(jam)</t>
+  </si>
+  <si>
+    <t>ff_x: Kecepatan angin maksimum(m/s)</t>
+  </si>
+  <si>
+    <t>ddd_x: Arah angin saat kecepatan maksimum(°)</t>
+  </si>
+  <si>
+    <t>ff_avg: Kecepatan angin rata-rata(m/s)</t>
+  </si>
+  <si>
+    <t>ddd_car: Arah angin terbanyak(°)</t>
   </si>
 </sst>
 </file>
@@ -119,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,43 +260,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -192,21 +284,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +628,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="A39" sqref="A39:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -554,7 +640,7 @@
     <col min="2" max="2" width="10" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -563,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -571,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -579,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -587,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -595,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -611,62 +697,1154 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
+      <c r="B9" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>340</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>320</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>340</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>330</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>80</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>320</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>330</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>300</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>32.2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>81.0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>320</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>330</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>340</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>86.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>330</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>32.8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>120</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8888.0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>60</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>150</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>81.0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>330</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>320</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>33.2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>340</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>190</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="E29" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>320</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>320</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>32.8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>320</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>350</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>81.0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>360</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>350</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>150</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>360</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="C37" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>360</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>350</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver"/>
